--- a/Excel/offlinedocs/test-workbook_tablestyleinfo.xlsx
+++ b/Excel/offlinedocs/test-workbook_tablestyleinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="7">
   <si>
     <t>Столбец1</t>
   </si>
@@ -78,8 +78,233 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="14">
+    <dxf>
+      <border>
+        <left style="thick">
+          <color theme="4"/>
+        </left>
+        <right style="thick">
+          <color theme="4"/>
+        </right>
+        <top style="thick">
+          <color theme="4"/>
+        </top>
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thick">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="thick">
+          <color theme="4"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="thick">
+          <color theme="4"/>
+        </left>
+        <right style="thick">
+          <color theme="6"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom style="thick">
+          <color theme="7"/>
+        </bottom>
+        <vertical style="thick">
+          <color theme="9"/>
+        </vertical>
+        <horizontal style="thick">
+          <color theme="8"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="1">
+        <left style="thick">
+          <color theme="4"/>
+        </left>
+        <right style="thick">
+          <color theme="6"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom style="thick">
+          <color theme="7"/>
+        </bottom>
+        <diagonal style="thick">
+          <color theme="7"/>
+        </diagonal>
+        <vertical style="thick">
+          <color theme="9"/>
+        </vertical>
+        <horizontal style="thick">
+          <color theme="8"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color theme="5"/>
+        </left>
+        <right style="thick">
+          <color theme="7"/>
+        </right>
+        <top style="thick">
+          <color theme="6"/>
+        </top>
+        <bottom style="thick">
+          <color theme="8"/>
+        </bottom>
+        <vertical style="thick">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="thick">
+          <color theme="9"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color theme="4"/>
+        </left>
+        <right style="thick">
+          <color theme="6"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom style="thick">
+          <color theme="7"/>
+        </bottom>
+        <vertical style="thick">
+          <color theme="9"/>
+        </vertical>
+        <horizontal style="thick">
+          <color theme="8"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="custom1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+    </tableStyle>
+    <tableStyle name="custom2" pivot="0" count="1">
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="custom3" pivot="0" count="8">
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="7"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="6"/>
+      <tableStyleElement type="firstTotalCell" dxfId="5"/>
+      <tableStyleElement type="lastTotalCell" dxfId="4"/>
+    </tableStyle>
+    <tableStyle name="custom4" pivot="0" count="4">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,6 +388,88 @@
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="Q3:U9" totalsRowCount="1">
+  <autoFilter ref="Q3:U8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="custom1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="Q12:U17" totalsRowCount="1">
+  <autoFilter ref="Q12:U16"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="custom2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="Q20:T25" totalsRowCount="1">
+  <autoFilter ref="Q20:T24"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="custom3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица47" displayName="Таблица47" ref="Q37:U39" headerRowCount="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="custom3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="Q43:U48" totalsRowCount="1">
+  <autoFilter ref="Q43:U47"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="custom4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Таблица421" displayName="Таблица421" ref="Q28:U33" totalsRowCount="1">
+  <autoFilter ref="Q28:U32"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="6" name="Столбец5"/>
+  </tableColumns>
+  <tableStyleInfo name="custom3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица16" displayName="Таблица16" ref="B15:G23" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="6">
@@ -177,6 +484,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица22" displayName="Таблица22" ref="B76:E79" totalsRowShown="0">
+  <autoFilter ref="B76:E79"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица23" displayName="Таблица23" ref="G76:J79" totalsRowShown="0">
+  <autoFilter ref="G76:J79"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Таблица24" displayName="Таблица24" ref="L76:O79" totalsRowShown="0">
+  <autoFilter ref="L76:O79"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Таблица25" displayName="Таблица25" ref="Q76:T79" totalsRowShown="0">
+  <autoFilter ref="Q76:T79"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Таблица26" displayName="Таблица26" ref="B81:E84" totalsRowShown="0">
+  <autoFilter ref="B81:E84"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Таблица27" displayName="Таблица27" ref="G81:J84" totalsRowShown="0">
+  <autoFilter ref="G81:J84"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Таблица28" displayName="Таблица28" ref="L81:O84" totalsRowShown="0">
+  <autoFilter ref="L81:O84"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Таблица29" displayName="Таблица29" ref="Q81:T84" totalsRowShown="0">
+  <autoFilter ref="Q81:T84"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Таблица30" displayName="Таблица30" ref="B86:E89" totalsRowShown="0">
+  <autoFilter ref="B86:E89"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Таблица31" displayName="Таблица31" ref="G86:J89" totalsRowShown="0">
+  <autoFilter ref="G86:J89"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица169" displayName="Таблица169" ref="B26:G33" headerRowCount="0">
   <tableColumns count="6">
@@ -191,6 +628,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Таблица32" displayName="Таблица32" ref="L86:O89" totalsRowShown="0">
+  <autoFilter ref="L86:O89"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Таблица33" displayName="Таблица33" ref="Q86:T89" totalsRowShown="0">
+  <autoFilter ref="Q86:T89"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Таблица34" displayName="Таблица34" ref="B91:E94" totalsRowShown="0">
+  <autoFilter ref="B91:E94"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Таблица35" displayName="Таблица35" ref="G91:J94" totalsRowShown="0">
+  <autoFilter ref="G91:J94"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Таблица37" displayName="Таблица37" ref="L91:O94" totalsRowShown="0">
+  <autoFilter ref="L91:O94"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Таблица38" displayName="Таблица38" ref="Q91:T94" totalsRowShown="0">
+  <autoFilter ref="Q91:T94"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Таблица39" displayName="Таблица39" ref="B96:E99" totalsRowShown="0">
+  <autoFilter ref="B96:E99"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Таблица40" displayName="Таблица40" ref="G96:J99" totalsRowShown="0">
+  <autoFilter ref="G96:J99"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Таблица41" displayName="Таблица41" ref="L96:O99" totalsRowShown="0">
+  <autoFilter ref="L96:O99"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Таблица42" displayName="Таблица42" ref="Q96:T99" totalsRowShown="0">
+  <autoFilter ref="Q96:T99"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица16910" displayName="Таблица16910" ref="B36:G43" headerRowCount="0">
   <tableColumns count="6">
@@ -205,6 +772,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Таблица43" displayName="Таблица43" ref="B101:E104" totalsRowShown="0">
+  <autoFilter ref="B101:E104"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Таблица44" displayName="Таблица44" ref="G101:J104" totalsRowShown="0">
+  <autoFilter ref="G101:J104"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Таблица45" displayName="Таблица45" ref="L101:O104" totalsRowShown="0">
+  <autoFilter ref="L101:O104"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Таблица46" displayName="Таблица46" ref="Q101:T104" totalsRowShown="0">
+  <autoFilter ref="Q101:T104"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Таблица4746" displayName="Таблица4746" ref="B106:E109" totalsRowShown="0">
+  <autoFilter ref="B106:E109"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Таблица48" displayName="Таблица48" ref="G106:J109" totalsRowShown="0">
+  <autoFilter ref="G106:J109"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Таблица49" displayName="Таблица49" ref="L106:O109" totalsRowShown="0">
+  <autoFilter ref="L106:O109"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Таблица50" displayName="Таблица50" ref="Q106:T109" totalsRowShown="0">
+  <autoFilter ref="Q106:T109"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Таблица51" displayName="Таблица51" ref="B111:E114" totalsRowShown="0">
+  <autoFilter ref="B111:E114"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Таблица52" displayName="Таблица52" ref="G111:J114" totalsRowShown="0">
+  <autoFilter ref="G111:J114"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица1691011" displayName="Таблица1691011" ref="B46:G53" headerRowCount="0">
   <tableColumns count="6">
@@ -219,6 +916,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Таблица53" displayName="Таблица53" ref="L111:O114" totalsRowShown="0">
+  <autoFilter ref="L111:O114"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Таблица54" displayName="Таблица54" ref="Q111:T114" totalsRowShown="0">
+  <autoFilter ref="Q111:T114"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Таблица56" displayName="Таблица56" ref="B116:E119" totalsRowShown="0">
+  <autoFilter ref="B116:E119"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Таблица57" displayName="Таблица57" ref="G116:J119" totalsRowShown="0">
+  <autoFilter ref="G116:J119"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Таблица58" displayName="Таблица58" ref="L116:O119" totalsRowShown="0">
+  <autoFilter ref="L116:O119"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Таблица59" displayName="Таблица59" ref="Q116:T119" totalsRowShown="0">
+  <autoFilter ref="Q116:T119"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Таблица60" displayName="Таблица60" ref="B121:E124" totalsRowShown="0">
+  <autoFilter ref="B121:E124"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Таблица61" displayName="Таблица61" ref="G121:J124" totalsRowShown="0">
+  <autoFilter ref="G121:J124"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Таблица62" displayName="Таблица62" ref="L121:O124" totalsRowShown="0">
+  <autoFilter ref="L121:O124"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Таблица63" displayName="Таблица63" ref="Q121:T124" totalsRowShown="0">
+  <autoFilter ref="Q121:T124"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица169101112" displayName="Таблица169101112" ref="B56:G63" headerRowCount="0">
   <tableColumns count="6">
@@ -233,6 +1060,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="Таблица64" displayName="Таблица64" ref="B126:E129" totalsRowShown="0">
+  <autoFilter ref="B126:E129"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Таблица65" displayName="Таблица65" ref="G126:J129" totalsRowShown="0">
+  <autoFilter ref="G126:J129"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Таблица66" displayName="Таблица66" ref="L126:O129" totalsRowShown="0">
+  <autoFilter ref="L126:O129"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Таблица67" displayName="Таблица67" ref="Q126:T129" totalsRowShown="0">
+  <autoFilter ref="Q126:T129"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Таблица68" displayName="Таблица68" ref="B131:E134" totalsRowShown="0">
+  <autoFilter ref="B131:E134"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Таблица69" displayName="Таблица69" ref="G131:J134" totalsRowShown="0">
+  <autoFilter ref="G131:J134"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Таблица70" displayName="Таблица70" ref="L131:O134" totalsRowShown="0">
+  <autoFilter ref="L131:O134"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="Таблица71" displayName="Таблица71" ref="Q131:T134" totalsRowShown="0">
+  <autoFilter ref="Q131:T134"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="Таблица72" displayName="Таблица72" ref="B136:E139" totalsRowShown="0">
+  <autoFilter ref="B136:E139"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="Таблица73" displayName="Таблица73" ref="G136:J139" totalsRowShown="0">
+  <autoFilter ref="G136:J139"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Таблица16910111213" displayName="Таблица16910111213" ref="B66:G73" headerRowCount="0">
   <tableColumns count="6">
@@ -247,6 +1204,136 @@
 </table>
 </file>
 
+<file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="Таблица74" displayName="Таблица74" ref="L136:O139" totalsRowShown="0">
+  <autoFilter ref="L136:O139"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="Таблица75" displayName="Таблица75" ref="Q136:T139" totalsRowShown="0">
+  <autoFilter ref="Q136:T139"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="Таблица76" displayName="Таблица76" ref="B141:E144" totalsRowShown="0">
+  <autoFilter ref="B141:E144"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Таблица78" displayName="Таблица78" ref="G141:J144" totalsRowShown="0">
+  <autoFilter ref="G141:J144"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Таблица79" displayName="Таблица79" ref="L141:O144" totalsRowShown="0">
+  <autoFilter ref="L141:O144"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Таблица80" displayName="Таблица80" ref="Q141:T144" totalsRowShown="0">
+  <autoFilter ref="Q141:T144"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Таблица81" displayName="Таблица81" ref="B146:E149" totalsRowShown="0">
+  <autoFilter ref="B146:E149"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Таблица82" displayName="Таблица82" ref="G146:J149" totalsRowShown="0">
+  <autoFilter ref="G146:J149"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="Таблица83" displayName="Таблица83" ref="L146:O149" totalsRowShown="0">
+  <autoFilter ref="L146:O149"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="Таблица84" displayName="Таблица84" ref="Q146:T149" totalsRowShown="0">
+  <autoFilter ref="Q146:T149"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица14" displayName="Таблица14" ref="J3:O11" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="6">
@@ -258,6 +1345,19 @@
     <tableColumn id="6" name="Столбец6" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Таблица222" displayName="Таблица222" ref="Q52:U56" headerRowCount="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="4" name="Столбец4"/>
+    <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="custom1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -563,19 +1663,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O73"/>
+  <dimension ref="B2:U146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66:R67"/>
+    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="11.85546875" customWidth="1"/>
     <col min="10" max="15" width="11.85546875" customWidth="1"/>
+    <col min="17" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -595,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -632,8 +1733,23 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -670,8 +1786,23 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -708,8 +1839,23 @@
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -746,8 +1892,23 @@
       <c r="O6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -784,8 +1945,23 @@
       <c r="O7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -822,8 +1998,23 @@
       <c r="O8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -860,8 +2051,15 @@
       <c r="O9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <f>SUBTOTAL(109,Таблица2[Столбец5])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -899,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -915,7 +2113,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -952,8 +2201,23 @@
       <c r="O15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
@@ -990,8 +2254,23 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1028,8 +2307,15 @@
       <c r="O17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <f>SUBTOTAL(109,Таблица3[Столбец5])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4</v>
       </c>
@@ -1067,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>5</v>
       </c>
@@ -1105,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>6</v>
       </c>
@@ -1142,8 +2428,20 @@
       <c r="O20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>7</v>
       </c>
@@ -1180,8 +2478,20 @@
       <c r="O21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>8</v>
       </c>
@@ -1218,8 +2528,20 @@
       <c r="O22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1245,8 +2567,20 @@
       <c r="O23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>6</v>
       </c>
@@ -1254,8 +2588,25 @@
         <f>SUBTOTAL(109,Таблица116[Столбец6])</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1293,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1331,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1368,8 +2719,23 @@
       <c r="O28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1406,8 +2772,23 @@
       <c r="O29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1444,8 +2825,23 @@
       <c r="O30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1482,8 +2878,23 @@
       <c r="O31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1520,8 +2931,23 @@
       <c r="O32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1558,8 +2984,11 @@
       <c r="O33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>8</v>
       </c>
@@ -1579,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -1599,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2</v>
       </c>
@@ -1636,8 +3065,23 @@
       <c r="O37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -1674,8 +3118,23 @@
       <c r="O38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1712,8 +3171,23 @@
       <c r="O39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1751,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>6</v>
       </c>
@@ -1789,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7</v>
       </c>
@@ -1827,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>8</v>
       </c>
@@ -1864,8 +3338,23 @@
       <c r="O43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J44">
         <v>7</v>
       </c>
@@ -1884,8 +3373,23 @@
       <c r="O44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J45">
         <v>8</v>
       </c>
@@ -1904,8 +3408,23 @@
       <c r="O45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1</v>
       </c>
@@ -1931,8 +3450,23 @@
         <f>SUBTOTAL(109,Таблица118[Столбец6])</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2</v>
       </c>
@@ -1951,8 +3485,23 @@
       <c r="G47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3</v>
       </c>
@@ -1971,8 +3520,15 @@
       <c r="G48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <f>SUBTOTAL(109,Таблица7[Столбец5])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>4</v>
       </c>
@@ -2010,7 +3566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>5</v>
       </c>
@@ -2048,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>6</v>
       </c>
@@ -2086,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>7</v>
       </c>
@@ -2123,8 +3679,23 @@
       <c r="O52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>8</v>
       </c>
@@ -2161,8 +3732,23 @@
       <c r="O53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J54">
         <v>5</v>
       </c>
@@ -2181,8 +3767,23 @@
       <c r="O54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J55">
         <v>6</v>
       </c>
@@ -2201,8 +3802,23 @@
       <c r="O55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
@@ -2239,8 +3855,23 @@
       <c r="O56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2</v>
       </c>
@@ -2278,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3</v>
       </c>
@@ -2305,7 +3936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4</v>
       </c>
@@ -2325,7 +3956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>5</v>
       </c>
@@ -2345,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>6</v>
       </c>
@@ -2383,7 +4014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>7</v>
       </c>
@@ -2421,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>8</v>
       </c>
@@ -2459,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J64">
         <v>3</v>
       </c>
@@ -2479,7 +4110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J65">
         <v>4</v>
       </c>
@@ -2499,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1</v>
       </c>
@@ -2537,7 +4168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2</v>
       </c>
@@ -2575,7 +4206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>3</v>
       </c>
@@ -2613,7 +4244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4</v>
       </c>
@@ -2651,7 +4282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -2678,7 +4309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>6</v>
       </c>
@@ -2698,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7</v>
       </c>
@@ -2718,7 +4349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8</v>
       </c>
@@ -2736,12 +4367,762 @@
       </c>
       <c r="G73">
         <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1</v>
+      </c>
+      <c r="S76" t="s">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" t="s">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1</v>
+      </c>
+      <c r="S86" t="s">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1</v>
+      </c>
+      <c r="S91" t="s">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>3</v>
+      </c>
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>1</v>
+      </c>
+      <c r="S96" t="s">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
+        <v>1</v>
+      </c>
+      <c r="S101" t="s">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106" t="s">
+        <v>1</v>
+      </c>
+      <c r="S106" t="s">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>3</v>
+      </c>
+      <c r="L111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>0</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1</v>
+      </c>
+      <c r="S111" t="s">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>3</v>
+      </c>
+      <c r="L116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>0</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1</v>
+      </c>
+      <c r="S116" t="s">
+        <v>2</v>
+      </c>
+      <c r="T116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>3</v>
+      </c>
+      <c r="L121" t="s">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>0</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1</v>
+      </c>
+      <c r="S121" t="s">
+        <v>2</v>
+      </c>
+      <c r="T121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>3</v>
+      </c>
+      <c r="L126" t="s">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>1</v>
+      </c>
+      <c r="S126" t="s">
+        <v>2</v>
+      </c>
+      <c r="T126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>3</v>
+      </c>
+      <c r="L131" t="s">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>0</v>
+      </c>
+      <c r="R131" t="s">
+        <v>1</v>
+      </c>
+      <c r="S131" t="s">
+        <v>2</v>
+      </c>
+      <c r="T131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>3</v>
+      </c>
+      <c r="L136" t="s">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>0</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1</v>
+      </c>
+      <c r="S136" t="s">
+        <v>2</v>
+      </c>
+      <c r="T136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>3</v>
+      </c>
+      <c r="L141" t="s">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>0</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1</v>
+      </c>
+      <c r="S141" t="s">
+        <v>2</v>
+      </c>
+      <c r="T141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>3</v>
+      </c>
+      <c r="L146" t="s">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>0</v>
+      </c>
+      <c r="R146" t="s">
+        <v>1</v>
+      </c>
+      <c r="S146" t="s">
+        <v>2</v>
+      </c>
+      <c r="T146" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="13">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="80">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2754,6 +5135,74 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId61"/>
+    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId63"/>
+    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId65"/>
+    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId70"/>
+    <tablePart r:id="rId71"/>
+    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId74"/>
+    <tablePart r:id="rId75"/>
+    <tablePart r:id="rId76"/>
+    <tablePart r:id="rId77"/>
+    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId79"/>
+    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId81"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Excel/offlinedocs/test-workbook_tablestyleinfo.xlsx
+++ b/Excel/offlinedocs/test-workbook_tablestyleinfo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28635" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21720" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="7">
   <si>
     <t>Столбец1</t>
   </si>
@@ -485,8 +485,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица22" displayName="Таблица22" ref="B76:E79" totalsRowShown="0">
-  <autoFilter ref="B76:E79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица22" displayName="Таблица22" ref="B93:E96" totalsRowShown="0">
+  <autoFilter ref="B93:E96"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -498,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица23" displayName="Таблица23" ref="G76:J79" totalsRowShown="0">
-  <autoFilter ref="G76:J79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица23" displayName="Таблица23" ref="G93:J96" totalsRowShown="0">
+  <autoFilter ref="G93:J96"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -511,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Таблица24" displayName="Таблица24" ref="L76:O79" totalsRowShown="0">
-  <autoFilter ref="L76:O79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Таблица24" displayName="Таблица24" ref="L93:O96" totalsRowShown="0">
+  <autoFilter ref="L93:O96"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -524,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Таблица25" displayName="Таблица25" ref="Q76:T79" totalsRowShown="0">
-  <autoFilter ref="Q76:T79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Таблица25" displayName="Таблица25" ref="Q93:T96" totalsRowShown="0">
+  <autoFilter ref="Q93:T96"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -537,8 +537,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Таблица26" displayName="Таблица26" ref="B81:E84" totalsRowShown="0">
-  <autoFilter ref="B81:E84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Таблица26" displayName="Таблица26" ref="B98:E101" totalsRowShown="0">
+  <autoFilter ref="B98:E101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Таблица27" displayName="Таблица27" ref="G81:J84" totalsRowShown="0">
-  <autoFilter ref="G81:J84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Таблица27" displayName="Таблица27" ref="G98:J101" totalsRowShown="0">
+  <autoFilter ref="G98:J101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Таблица28" displayName="Таблица28" ref="L81:O84" totalsRowShown="0">
-  <autoFilter ref="L81:O84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Таблица28" displayName="Таблица28" ref="L98:O101" totalsRowShown="0">
+  <autoFilter ref="L98:O101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -576,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Таблица29" displayName="Таблица29" ref="Q81:T84" totalsRowShown="0">
-  <autoFilter ref="Q81:T84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Таблица29" displayName="Таблица29" ref="Q98:T101" totalsRowShown="0">
+  <autoFilter ref="Q98:T101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -589,8 +589,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Таблица30" displayName="Таблица30" ref="B86:E89" totalsRowShown="0">
-  <autoFilter ref="B86:E89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Таблица30" displayName="Таблица30" ref="B103:E106" totalsRowShown="0">
+  <autoFilter ref="B103:E106"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -602,8 +602,8 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Таблица31" displayName="Таблица31" ref="G86:J89" totalsRowShown="0">
-  <autoFilter ref="G86:J89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Таблица31" displayName="Таблица31" ref="G103:J106" totalsRowShown="0">
+  <autoFilter ref="G103:J106"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -629,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Таблица32" displayName="Таблица32" ref="L86:O89" totalsRowShown="0">
-  <autoFilter ref="L86:O89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Таблица32" displayName="Таблица32" ref="L103:O106" totalsRowShown="0">
+  <autoFilter ref="L103:O106"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -642,8 +642,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Таблица33" displayName="Таблица33" ref="Q86:T89" totalsRowShown="0">
-  <autoFilter ref="Q86:T89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Таблица33" displayName="Таблица33" ref="Q103:T106" totalsRowShown="0">
+  <autoFilter ref="Q103:T106"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -655,8 +655,8 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Таблица34" displayName="Таблица34" ref="B91:E94" totalsRowShown="0">
-  <autoFilter ref="B91:E94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Таблица34" displayName="Таблица34" ref="B108:E111" totalsRowShown="0">
+  <autoFilter ref="B108:E111"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -668,8 +668,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Таблица35" displayName="Таблица35" ref="G91:J94" totalsRowShown="0">
-  <autoFilter ref="G91:J94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Таблица35" displayName="Таблица35" ref="G108:J111" totalsRowShown="0">
+  <autoFilter ref="G108:J111"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -681,8 +681,8 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Таблица37" displayName="Таблица37" ref="L91:O94" totalsRowShown="0">
-  <autoFilter ref="L91:O94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Таблица37" displayName="Таблица37" ref="L108:O111" totalsRowShown="0">
+  <autoFilter ref="L108:O111"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -694,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Таблица38" displayName="Таблица38" ref="Q91:T94" totalsRowShown="0">
-  <autoFilter ref="Q91:T94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Таблица38" displayName="Таблица38" ref="Q108:T111" totalsRowShown="0">
+  <autoFilter ref="Q108:T111"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -707,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Таблица39" displayName="Таблица39" ref="B96:E99" totalsRowShown="0">
-  <autoFilter ref="B96:E99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Таблица39" displayName="Таблица39" ref="B113:E116" totalsRowShown="0">
+  <autoFilter ref="B113:E116"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -720,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Таблица40" displayName="Таблица40" ref="G96:J99" totalsRowShown="0">
-  <autoFilter ref="G96:J99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Таблица40" displayName="Таблица40" ref="G113:J116" totalsRowShown="0">
+  <autoFilter ref="G113:J116"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -733,8 +733,8 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Таблица41" displayName="Таблица41" ref="L96:O99" totalsRowShown="0">
-  <autoFilter ref="L96:O99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Таблица41" displayName="Таблица41" ref="L113:O116" totalsRowShown="0">
+  <autoFilter ref="L113:O116"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -746,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Таблица42" displayName="Таблица42" ref="Q96:T99" totalsRowShown="0">
-  <autoFilter ref="Q96:T99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Таблица42" displayName="Таблица42" ref="Q113:T116" totalsRowShown="0">
+  <autoFilter ref="Q113:T116"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -773,8 +773,8 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Таблица43" displayName="Таблица43" ref="B101:E104" totalsRowShown="0">
-  <autoFilter ref="B101:E104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Таблица43" displayName="Таблица43" ref="B118:E121" totalsRowShown="0">
+  <autoFilter ref="B118:E121"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -786,8 +786,8 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Таблица44" displayName="Таблица44" ref="G101:J104" totalsRowShown="0">
-  <autoFilter ref="G101:J104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Таблица44" displayName="Таблица44" ref="G118:J121" totalsRowShown="0">
+  <autoFilter ref="G118:J121"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -799,8 +799,8 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Таблица45" displayName="Таблица45" ref="L101:O104" totalsRowShown="0">
-  <autoFilter ref="L101:O104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Таблица45" displayName="Таблица45" ref="L118:O121" totalsRowShown="0">
+  <autoFilter ref="L118:O121"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -812,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Таблица46" displayName="Таблица46" ref="Q101:T104" totalsRowShown="0">
-  <autoFilter ref="Q101:T104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Таблица46" displayName="Таблица46" ref="Q118:T121" totalsRowShown="0">
+  <autoFilter ref="Q118:T121"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -825,8 +825,8 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Таблица4746" displayName="Таблица4746" ref="B106:E109" totalsRowShown="0">
-  <autoFilter ref="B106:E109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Таблица4746" displayName="Таблица4746" ref="B123:E126" totalsRowShown="0">
+  <autoFilter ref="B123:E126"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -838,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Таблица48" displayName="Таблица48" ref="G106:J109" totalsRowShown="0">
-  <autoFilter ref="G106:J109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Таблица48" displayName="Таблица48" ref="G123:J126" totalsRowShown="0">
+  <autoFilter ref="G123:J126"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -851,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Таблица49" displayName="Таблица49" ref="L106:O109" totalsRowShown="0">
-  <autoFilter ref="L106:O109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Таблица49" displayName="Таблица49" ref="L123:O126" totalsRowShown="0">
+  <autoFilter ref="L123:O126"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -864,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Таблица50" displayName="Таблица50" ref="Q106:T109" totalsRowShown="0">
-  <autoFilter ref="Q106:T109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Таблица50" displayName="Таблица50" ref="Q123:T126" totalsRowShown="0">
+  <autoFilter ref="Q123:T126"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -877,8 +877,8 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Таблица51" displayName="Таблица51" ref="B111:E114" totalsRowShown="0">
-  <autoFilter ref="B111:E114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Таблица51" displayName="Таблица51" ref="B128:E131" totalsRowShown="0">
+  <autoFilter ref="B128:E131"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -890,8 +890,8 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Таблица52" displayName="Таблица52" ref="G111:J114" totalsRowShown="0">
-  <autoFilter ref="G111:J114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Таблица52" displayName="Таблица52" ref="G128:J131" totalsRowShown="0">
+  <autoFilter ref="G128:J131"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -917,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Таблица53" displayName="Таблица53" ref="L111:O114" totalsRowShown="0">
-  <autoFilter ref="L111:O114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Таблица53" displayName="Таблица53" ref="L128:O131" totalsRowShown="0">
+  <autoFilter ref="L128:O131"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -930,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Таблица54" displayName="Таблица54" ref="Q111:T114" totalsRowShown="0">
-  <autoFilter ref="Q111:T114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Таблица54" displayName="Таблица54" ref="Q128:T131" totalsRowShown="0">
+  <autoFilter ref="Q128:T131"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -943,8 +943,8 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Таблица56" displayName="Таблица56" ref="B116:E119" totalsRowShown="0">
-  <autoFilter ref="B116:E119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Таблица56" displayName="Таблица56" ref="B133:E136" totalsRowShown="0">
+  <autoFilter ref="B133:E136"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -956,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Таблица57" displayName="Таблица57" ref="G116:J119" totalsRowShown="0">
-  <autoFilter ref="G116:J119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Таблица57" displayName="Таблица57" ref="G133:J136" totalsRowShown="0">
+  <autoFilter ref="G133:J136"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -969,8 +969,8 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Таблица58" displayName="Таблица58" ref="L116:O119" totalsRowShown="0">
-  <autoFilter ref="L116:O119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Таблица58" displayName="Таблица58" ref="L133:O136" totalsRowShown="0">
+  <autoFilter ref="L133:O136"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -982,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Таблица59" displayName="Таблица59" ref="Q116:T119" totalsRowShown="0">
-  <autoFilter ref="Q116:T119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Таблица59" displayName="Таблица59" ref="Q133:T136" totalsRowShown="0">
+  <autoFilter ref="Q133:T136"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -995,8 +995,8 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Таблица60" displayName="Таблица60" ref="B121:E124" totalsRowShown="0">
-  <autoFilter ref="B121:E124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Таблица60" displayName="Таблица60" ref="B138:E141" totalsRowShown="0">
+  <autoFilter ref="B138:E141"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1008,8 +1008,8 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Таблица61" displayName="Таблица61" ref="G121:J124" totalsRowShown="0">
-  <autoFilter ref="G121:J124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Таблица61" displayName="Таблица61" ref="G138:J141" totalsRowShown="0">
+  <autoFilter ref="G138:J141"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1021,8 +1021,8 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Таблица62" displayName="Таблица62" ref="L121:O124" totalsRowShown="0">
-  <autoFilter ref="L121:O124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Таблица62" displayName="Таблица62" ref="L138:O141" totalsRowShown="0">
+  <autoFilter ref="L138:O141"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1034,8 +1034,8 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Таблица63" displayName="Таблица63" ref="Q121:T124" totalsRowShown="0">
-  <autoFilter ref="Q121:T124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Таблица63" displayName="Таблица63" ref="Q138:T141" totalsRowShown="0">
+  <autoFilter ref="Q138:T141"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1061,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="Таблица64" displayName="Таблица64" ref="B126:E129" totalsRowShown="0">
-  <autoFilter ref="B126:E129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="Таблица64" displayName="Таблица64" ref="B143:E146" totalsRowShown="0">
+  <autoFilter ref="B143:E146"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1074,8 +1074,8 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Таблица65" displayName="Таблица65" ref="G126:J129" totalsRowShown="0">
-  <autoFilter ref="G126:J129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Таблица65" displayName="Таблица65" ref="G143:J146" totalsRowShown="0">
+  <autoFilter ref="G143:J146"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1087,8 +1087,8 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Таблица66" displayName="Таблица66" ref="L126:O129" totalsRowShown="0">
-  <autoFilter ref="L126:O129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Таблица66" displayName="Таблица66" ref="L143:O146" totalsRowShown="0">
+  <autoFilter ref="L143:O146"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1100,8 +1100,8 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Таблица67" displayName="Таблица67" ref="Q126:T129" totalsRowShown="0">
-  <autoFilter ref="Q126:T129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Таблица67" displayName="Таблица67" ref="Q143:T146" totalsRowShown="0">
+  <autoFilter ref="Q143:T146"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1113,8 +1113,8 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Таблица68" displayName="Таблица68" ref="B131:E134" totalsRowShown="0">
-  <autoFilter ref="B131:E134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Таблица68" displayName="Таблица68" ref="B148:E151" totalsRowShown="0">
+  <autoFilter ref="B148:E151"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1126,8 +1126,8 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Таблица69" displayName="Таблица69" ref="G131:J134" totalsRowShown="0">
-  <autoFilter ref="G131:J134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Таблица69" displayName="Таблица69" ref="G148:J151" totalsRowShown="0">
+  <autoFilter ref="G148:J151"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1139,8 +1139,8 @@
 </file>
 
 <file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Таблица70" displayName="Таблица70" ref="L131:O134" totalsRowShown="0">
-  <autoFilter ref="L131:O134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Таблица70" displayName="Таблица70" ref="L148:O151" totalsRowShown="0">
+  <autoFilter ref="L148:O151"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1152,8 +1152,8 @@
 </file>
 
 <file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="Таблица71" displayName="Таблица71" ref="Q131:T134" totalsRowShown="0">
-  <autoFilter ref="Q131:T134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="Таблица71" displayName="Таблица71" ref="Q148:T151" totalsRowShown="0">
+  <autoFilter ref="Q148:T151"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1165,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="Таблица72" displayName="Таблица72" ref="B136:E139" totalsRowShown="0">
-  <autoFilter ref="B136:E139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="Таблица72" displayName="Таблица72" ref="B153:E156" totalsRowShown="0">
+  <autoFilter ref="B153:E156"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1178,8 +1178,8 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="Таблица73" displayName="Таблица73" ref="G136:J139" totalsRowShown="0">
-  <autoFilter ref="G136:J139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="Таблица73" displayName="Таблица73" ref="G153:J156" totalsRowShown="0">
+  <autoFilter ref="G153:J156"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1205,8 +1205,8 @@
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="Таблица74" displayName="Таблица74" ref="L136:O139" totalsRowShown="0">
-  <autoFilter ref="L136:O139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="Таблица74" displayName="Таблица74" ref="L153:O156" totalsRowShown="0">
+  <autoFilter ref="L153:O156"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1218,8 +1218,8 @@
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="Таблица75" displayName="Таблица75" ref="Q136:T139" totalsRowShown="0">
-  <autoFilter ref="Q136:T139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="Таблица75" displayName="Таблица75" ref="Q153:T156" totalsRowShown="0">
+  <autoFilter ref="Q153:T156"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1231,8 +1231,8 @@
 </file>
 
 <file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="Таблица76" displayName="Таблица76" ref="B141:E144" totalsRowShown="0">
-  <autoFilter ref="B141:E144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="Таблица76" displayName="Таблица76" ref="B158:E161" totalsRowShown="0">
+  <autoFilter ref="B158:E161"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1244,8 +1244,8 @@
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Таблица78" displayName="Таблица78" ref="G141:J144" totalsRowShown="0">
-  <autoFilter ref="G141:J144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Таблица78" displayName="Таблица78" ref="G158:J161" totalsRowShown="0">
+  <autoFilter ref="G158:J161"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1257,8 +1257,8 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Таблица79" displayName="Таблица79" ref="L141:O144" totalsRowShown="0">
-  <autoFilter ref="L141:O144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Таблица79" displayName="Таблица79" ref="L158:O161" totalsRowShown="0">
+  <autoFilter ref="L158:O161"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1270,8 +1270,8 @@
 </file>
 
 <file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Таблица80" displayName="Таблица80" ref="Q141:T144" totalsRowShown="0">
-  <autoFilter ref="Q141:T144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Таблица80" displayName="Таблица80" ref="Q158:T161" totalsRowShown="0">
+  <autoFilter ref="Q158:T161"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1283,8 +1283,8 @@
 </file>
 
 <file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Таблица81" displayName="Таблица81" ref="B146:E149" totalsRowShown="0">
-  <autoFilter ref="B146:E149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Таблица81" displayName="Таблица81" ref="B163:E166" totalsRowShown="0">
+  <autoFilter ref="B163:E166"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1296,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Таблица82" displayName="Таблица82" ref="G146:J149" totalsRowShown="0">
-  <autoFilter ref="G146:J149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Таблица82" displayName="Таблица82" ref="G163:J166" totalsRowShown="0">
+  <autoFilter ref="G163:J166"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1309,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="Таблица83" displayName="Таблица83" ref="L146:O149" totalsRowShown="0">
-  <autoFilter ref="L146:O149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="Таблица83" displayName="Таблица83" ref="L163:O166" totalsRowShown="0">
+  <autoFilter ref="L163:O166"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1322,8 +1322,8 @@
 </file>
 
 <file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="Таблица84" displayName="Таблица84" ref="Q146:T149" totalsRowShown="0">
-  <autoFilter ref="Q146:T149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="Таблица84" displayName="Таблица84" ref="Q163:T166" totalsRowShown="0">
+  <autoFilter ref="Q163:T166"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
@@ -1358,6 +1358,54 @@
     <tableColumn id="5" name="Столбец5" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="custom1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="81" name="Таблица85" displayName="Таблица85" ref="W76:Y80" totalsRowCount="1">
+  <autoFilter ref="W76:Y79"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="Таблица8583" displayName="Таблица8583" ref="W82:Y86" totalsRowCount="1">
+  <autoFilter ref="W82:Y85"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="Таблица8584" displayName="Таблица8584" ref="AA76:AC80" totalsRowCount="1">
+  <autoFilter ref="AA76:AC79"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="84" name="Таблица8585" displayName="Таблица8585" ref="AA82:AC86" totalsRowCount="1">
+  <autoFilter ref="AA82:AC85"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Столбец1" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1663,17 +1711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U146"/>
+  <dimension ref="B2:AC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
-      <selection activeCell="X72" sqref="X72"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="11.85546875" customWidth="1"/>
     <col min="17" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
@@ -4110,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J65">
         <v>4</v>
       </c>
@@ -4130,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1</v>
       </c>
@@ -4168,7 +4221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2</v>
       </c>
@@ -4206,7 +4259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>3</v>
       </c>
@@ -4244,7 +4297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4</v>
       </c>
@@ -4282,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -4309,7 +4362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>6</v>
       </c>
@@ -4329,7 +4382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7</v>
       </c>
@@ -4349,7 +4402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8</v>
       </c>
@@ -4369,760 +4422,952 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" t="s">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>1</v>
-      </c>
-      <c r="N76" t="s">
-        <v>2</v>
-      </c>
-      <c r="O76" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>1</v>
-      </c>
-      <c r="S76" t="s">
-        <v>2</v>
-      </c>
-      <c r="T76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" t="s">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>2</v>
-      </c>
-      <c r="O81" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S81" t="s">
-        <v>2</v>
-      </c>
-      <c r="T81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>3</v>
-      </c>
-      <c r="L86" t="s">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1</v>
-      </c>
-      <c r="N86" t="s">
-        <v>2</v>
-      </c>
-      <c r="O86" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1</v>
-      </c>
-      <c r="S86" t="s">
-        <v>2</v>
-      </c>
-      <c r="T86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" t="s">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1</v>
-      </c>
-      <c r="N91" t="s">
-        <v>2</v>
-      </c>
-      <c r="O91" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>1</v>
-      </c>
-      <c r="S91" t="s">
-        <v>2</v>
-      </c>
-      <c r="T91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>3</v>
-      </c>
-      <c r="L96" t="s">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1</v>
-      </c>
-      <c r="N96" t="s">
-        <v>2</v>
-      </c>
-      <c r="O96" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>0</v>
-      </c>
-      <c r="R96" t="s">
-        <v>1</v>
-      </c>
-      <c r="S96" t="s">
-        <v>2</v>
-      </c>
-      <c r="T96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>1</v>
-      </c>
-      <c r="I101" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" t="s">
-        <v>0</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1</v>
-      </c>
-      <c r="N101" t="s">
-        <v>2</v>
-      </c>
-      <c r="O101" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>0</v>
-      </c>
-      <c r="R101" t="s">
-        <v>1</v>
-      </c>
-      <c r="S101" t="s">
-        <v>2</v>
-      </c>
-      <c r="T101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J106" t="s">
-        <v>3</v>
-      </c>
-      <c r="L106" t="s">
-        <v>0</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1</v>
-      </c>
-      <c r="N106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O106" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>0</v>
-      </c>
-      <c r="R106" t="s">
-        <v>1</v>
-      </c>
-      <c r="S106" t="s">
-        <v>2</v>
-      </c>
-      <c r="T106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" t="s">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
-        <v>2</v>
-      </c>
-      <c r="J111" t="s">
-        <v>3</v>
-      </c>
-      <c r="L111" t="s">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>1</v>
-      </c>
-      <c r="N111" t="s">
-        <v>2</v>
-      </c>
-      <c r="O111" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>0</v>
-      </c>
-      <c r="R111" t="s">
-        <v>1</v>
-      </c>
-      <c r="S111" t="s">
-        <v>2</v>
-      </c>
-      <c r="T111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>3</v>
-      </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>2</v>
-      </c>
-      <c r="J116" t="s">
-        <v>3</v>
-      </c>
-      <c r="L116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M116" t="s">
-        <v>1</v>
-      </c>
-      <c r="N116" t="s">
-        <v>2</v>
-      </c>
-      <c r="O116" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>0</v>
-      </c>
-      <c r="R116" t="s">
-        <v>1</v>
-      </c>
-      <c r="S116" t="s">
-        <v>2</v>
-      </c>
-      <c r="T116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
-        <v>2</v>
-      </c>
-      <c r="J121" t="s">
-        <v>3</v>
-      </c>
-      <c r="L121" t="s">
-        <v>0</v>
-      </c>
-      <c r="M121" t="s">
-        <v>1</v>
-      </c>
-      <c r="N121" t="s">
-        <v>2</v>
-      </c>
-      <c r="O121" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>0</v>
-      </c>
-      <c r="R121" t="s">
-        <v>1</v>
-      </c>
-      <c r="S121" t="s">
-        <v>2</v>
-      </c>
-      <c r="T121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>1</v>
-      </c>
-      <c r="I126" t="s">
-        <v>2</v>
-      </c>
-      <c r="J126" t="s">
-        <v>3</v>
-      </c>
-      <c r="L126" t="s">
-        <v>0</v>
-      </c>
-      <c r="M126" t="s">
-        <v>1</v>
-      </c>
-      <c r="N126" t="s">
-        <v>2</v>
-      </c>
-      <c r="O126" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>0</v>
-      </c>
-      <c r="R126" t="s">
-        <v>1</v>
-      </c>
-      <c r="S126" t="s">
-        <v>2</v>
-      </c>
-      <c r="T126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1</v>
-      </c>
-      <c r="I131" t="s">
-        <v>2</v>
-      </c>
-      <c r="J131" t="s">
-        <v>3</v>
-      </c>
-      <c r="L131" t="s">
-        <v>0</v>
-      </c>
-      <c r="M131" t="s">
-        <v>1</v>
-      </c>
-      <c r="N131" t="s">
-        <v>2</v>
-      </c>
-      <c r="O131" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>0</v>
-      </c>
-      <c r="R131" t="s">
-        <v>1</v>
-      </c>
-      <c r="S131" t="s">
-        <v>2</v>
-      </c>
-      <c r="T131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" t="s">
-        <v>0</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J136" t="s">
-        <v>3</v>
-      </c>
-      <c r="L136" t="s">
-        <v>0</v>
-      </c>
-      <c r="M136" t="s">
-        <v>1</v>
-      </c>
-      <c r="N136" t="s">
-        <v>2</v>
-      </c>
-      <c r="O136" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>0</v>
-      </c>
-      <c r="R136" t="s">
-        <v>1</v>
-      </c>
-      <c r="S136" t="s">
-        <v>2</v>
-      </c>
-      <c r="T136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s">
-        <v>3</v>
-      </c>
-      <c r="G141" t="s">
-        <v>0</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1</v>
-      </c>
-      <c r="I141" t="s">
-        <v>2</v>
-      </c>
-      <c r="J141" t="s">
-        <v>3</v>
-      </c>
-      <c r="L141" t="s">
-        <v>0</v>
-      </c>
-      <c r="M141" t="s">
-        <v>1</v>
-      </c>
-      <c r="N141" t="s">
-        <v>2</v>
-      </c>
-      <c r="O141" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>0</v>
-      </c>
-      <c r="R141" t="s">
-        <v>1</v>
-      </c>
-      <c r="S141" t="s">
-        <v>2</v>
-      </c>
-      <c r="T141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1</v>
-      </c>
-      <c r="I146" t="s">
-        <v>2</v>
-      </c>
-      <c r="J146" t="s">
-        <v>3</v>
-      </c>
-      <c r="L146" t="s">
-        <v>0</v>
-      </c>
-      <c r="M146" t="s">
-        <v>1</v>
-      </c>
-      <c r="N146" t="s">
-        <v>2</v>
-      </c>
-      <c r="O146" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>0</v>
-      </c>
-      <c r="R146" t="s">
-        <v>1</v>
-      </c>
-      <c r="S146" t="s">
-        <v>2</v>
-      </c>
-      <c r="T146" t="s">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W76" t="s">
+        <v>0</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>2</v>
+      </c>
+      <c r="X78">
+        <v>2</v>
+      </c>
+      <c r="Y78">
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <v>2</v>
+      </c>
+      <c r="AB78">
+        <v>2</v>
+      </c>
+      <c r="AC78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>3</v>
+      </c>
+      <c r="X79">
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <v>3</v>
+      </c>
+      <c r="AA79">
+        <v>3</v>
+      </c>
+      <c r="AB79">
+        <v>3</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <f>SUBTOTAL(109,Таблица85[Столбец3])</f>
+        <v>6</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC80">
+        <f>SUBTOTAL(109,Таблица8584[Столбец3])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W82" t="s">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>2</v>
+      </c>
+      <c r="X84">
+        <v>2</v>
+      </c>
+      <c r="Y84">
+        <v>2</v>
+      </c>
+      <c r="AA84">
+        <v>2</v>
+      </c>
+      <c r="AB84">
+        <v>2</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>3</v>
+      </c>
+      <c r="X85">
+        <v>3</v>
+      </c>
+      <c r="Y85">
+        <v>3</v>
+      </c>
+      <c r="AA85">
+        <v>3</v>
+      </c>
+      <c r="AB85">
+        <v>3</v>
+      </c>
+      <c r="AC85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <f>SUBTOTAL(109,Таблица8583[Столбец3])</f>
+        <v>6</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC86">
+        <f>SUBTOTAL(109,Таблица8585[Столбец3])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>3</v>
+      </c>
+      <c r="L93" t="s">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1</v>
+      </c>
+      <c r="S93" t="s">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3</v>
+      </c>
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1</v>
+      </c>
+      <c r="S98" t="s">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>0</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1</v>
+      </c>
+      <c r="S103" t="s">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>0</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1</v>
+      </c>
+      <c r="S108" t="s">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" t="s">
+        <v>1</v>
+      </c>
+      <c r="S113" t="s">
+        <v>2</v>
+      </c>
+      <c r="T113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>3</v>
+      </c>
+      <c r="L118" t="s">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>0</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1</v>
+      </c>
+      <c r="S118" t="s">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>3</v>
+      </c>
+      <c r="L123" t="s">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>0</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1</v>
+      </c>
+      <c r="S123" t="s">
+        <v>2</v>
+      </c>
+      <c r="T123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>3</v>
+      </c>
+      <c r="L128" t="s">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>0</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1</v>
+      </c>
+      <c r="S128" t="s">
+        <v>2</v>
+      </c>
+      <c r="T128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>3</v>
+      </c>
+      <c r="L133" t="s">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>0</v>
+      </c>
+      <c r="R133" t="s">
+        <v>1</v>
+      </c>
+      <c r="S133" t="s">
+        <v>2</v>
+      </c>
+      <c r="T133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>3</v>
+      </c>
+      <c r="L138" t="s">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>0</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1</v>
+      </c>
+      <c r="S138" t="s">
+        <v>2</v>
+      </c>
+      <c r="T138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>0</v>
+      </c>
+      <c r="R143" t="s">
+        <v>1</v>
+      </c>
+      <c r="S143" t="s">
+        <v>2</v>
+      </c>
+      <c r="T143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>3</v>
+      </c>
+      <c r="L148" t="s">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>0</v>
+      </c>
+      <c r="R148" t="s">
+        <v>1</v>
+      </c>
+      <c r="S148" t="s">
+        <v>2</v>
+      </c>
+      <c r="T148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>3</v>
+      </c>
+      <c r="L153" t="s">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>0</v>
+      </c>
+      <c r="R153" t="s">
+        <v>1</v>
+      </c>
+      <c r="S153" t="s">
+        <v>2</v>
+      </c>
+      <c r="T153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>3</v>
+      </c>
+      <c r="L158" t="s">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>0</v>
+      </c>
+      <c r="R158" t="s">
+        <v>1</v>
+      </c>
+      <c r="S158" t="s">
+        <v>2</v>
+      </c>
+      <c r="T158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>3</v>
+      </c>
+      <c r="L163" t="s">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>1</v>
+      </c>
+      <c r="N163" t="s">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>0</v>
+      </c>
+      <c r="R163" t="s">
+        <v>1</v>
+      </c>
+      <c r="S163" t="s">
+        <v>2</v>
+      </c>
+      <c r="T163" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="80">
+  <tableParts count="84">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -5203,6 +5448,10 @@
     <tablePart r:id="rId79"/>
     <tablePart r:id="rId80"/>
     <tablePart r:id="rId81"/>
+    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId83"/>
+    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId85"/>
   </tableParts>
 </worksheet>
 </file>
